--- a/data/pca/factorExposure/factorExposure_2019-06-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1194632623285394</v>
+        <v>0.07874443014234046</v>
       </c>
       <c r="C2">
-        <v>-0.01610235677643032</v>
+        <v>0.01169681398342794</v>
       </c>
       <c r="D2">
-        <v>-0.01668612491281716</v>
+        <v>0.03014770883634282</v>
       </c>
       <c r="E2">
-        <v>0.1063791872741313</v>
+        <v>0.1409222415302365</v>
       </c>
       <c r="F2">
-        <v>0.09324469215108579</v>
+        <v>0.01515009499464413</v>
       </c>
       <c r="G2">
-        <v>0.1186968276643082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08376420676574504</v>
+      </c>
+      <c r="H2">
+        <v>0.08252236790815645</v>
+      </c>
+      <c r="I2">
+        <v>-0.05608764620109196</v>
+      </c>
+      <c r="J2">
+        <v>0.02272748298328548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2103789838756345</v>
+        <v>0.1638543340938882</v>
       </c>
       <c r="C3">
-        <v>0.07655502037359652</v>
+        <v>0.07815871776715305</v>
       </c>
       <c r="D3">
-        <v>0.08311138588261358</v>
+        <v>-0.05653075670935377</v>
       </c>
       <c r="E3">
-        <v>0.3251156726702454</v>
+        <v>0.3679461159231394</v>
       </c>
       <c r="F3">
-        <v>0.02548387761767812</v>
+        <v>0.1220049366273043</v>
       </c>
       <c r="G3">
-        <v>0.3504696137367797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.008312132246933421</v>
+      </c>
+      <c r="H3">
+        <v>0.2591029158960548</v>
+      </c>
+      <c r="I3">
+        <v>-0.1356192358482776</v>
+      </c>
+      <c r="J3">
+        <v>-0.160780520595229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09898313096247897</v>
+        <v>0.07418198569761349</v>
       </c>
       <c r="C4">
-        <v>0.01682341735156174</v>
+        <v>0.02869599052718691</v>
       </c>
       <c r="D4">
-        <v>0.001223477716374791</v>
+        <v>0.02046816262800713</v>
       </c>
       <c r="E4">
-        <v>0.08855893861718171</v>
+        <v>0.08573707177590302</v>
       </c>
       <c r="F4">
-        <v>0.04985573416676339</v>
+        <v>0.05520072277404606</v>
       </c>
       <c r="G4">
-        <v>0.03215342555498352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03813478936486338</v>
+      </c>
+      <c r="H4">
+        <v>0.03604451940418835</v>
+      </c>
+      <c r="I4">
+        <v>-0.0188232064456994</v>
+      </c>
+      <c r="J4">
+        <v>-0.05023618156763571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01013082364044422</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003598671758278079</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0007044560209053137</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006037539761081537</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003414766944872396</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01239760579911972</v>
+      </c>
+      <c r="H6">
+        <v>0.005191514136698981</v>
+      </c>
+      <c r="I6">
+        <v>-0.003260865331220244</v>
+      </c>
+      <c r="J6">
+        <v>0.0009781531753047775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04351971224571342</v>
+        <v>0.03567420979663741</v>
       </c>
       <c r="C7">
-        <v>0.003840412020982069</v>
+        <v>0.01579257290687794</v>
       </c>
       <c r="D7">
-        <v>-0.0245674152335502</v>
+        <v>0.01593826802291011</v>
       </c>
       <c r="E7">
-        <v>0.0801177064216884</v>
+        <v>0.05640573934767468</v>
       </c>
       <c r="F7">
-        <v>-0.03666393500015232</v>
+        <v>0.03029405159635404</v>
       </c>
       <c r="G7">
-        <v>0.01960544262985283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01293393688350685</v>
+      </c>
+      <c r="H7">
+        <v>0.04201026932832775</v>
+      </c>
+      <c r="I7">
+        <v>-0.0002020789215636929</v>
+      </c>
+      <c r="J7">
+        <v>-0.02752438148452682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04105352092038998</v>
+        <v>0.032234509108011</v>
       </c>
       <c r="C8">
-        <v>0.03274089802778506</v>
+        <v>0.03358520052884012</v>
       </c>
       <c r="D8">
-        <v>0.007913751109486025</v>
+        <v>0.00520731120601063</v>
       </c>
       <c r="E8">
-        <v>0.07126493417590862</v>
+        <v>0.0768588262404373</v>
       </c>
       <c r="F8">
-        <v>0.003854049517078496</v>
+        <v>0.04796521888951457</v>
       </c>
       <c r="G8">
-        <v>0.05407908807685087</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.00347474167760575</v>
+      </c>
+      <c r="H8">
+        <v>0.05472911038708773</v>
+      </c>
+      <c r="I8">
+        <v>-0.03316563881907832</v>
+      </c>
+      <c r="J8">
+        <v>-0.03032836969320069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08728054477555912</v>
+        <v>0.06401881873231932</v>
       </c>
       <c r="C9">
-        <v>0.01759327694342817</v>
+        <v>0.02842202071796116</v>
       </c>
       <c r="D9">
-        <v>-0.01412872323650295</v>
+        <v>0.02241929188326358</v>
       </c>
       <c r="E9">
-        <v>0.07873355231331841</v>
+        <v>0.08187542260318825</v>
       </c>
       <c r="F9">
-        <v>0.03316665364197664</v>
+        <v>0.05985430238721929</v>
       </c>
       <c r="G9">
-        <v>0.03159318369266396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.03060859206324149</v>
+      </c>
+      <c r="H9">
+        <v>0.03257415395062343</v>
+      </c>
+      <c r="I9">
+        <v>-0.009151503659453575</v>
+      </c>
+      <c r="J9">
+        <v>-0.01464238382012617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02109487512512792</v>
+        <v>0.004834018594360215</v>
       </c>
       <c r="C10">
-        <v>-0.1598686441276486</v>
+        <v>-0.159839994608661</v>
       </c>
       <c r="D10">
-        <v>0.007860543918221052</v>
+        <v>-0.01074043629249906</v>
       </c>
       <c r="E10">
-        <v>0.04063832711086851</v>
+        <v>0.05131512508188082</v>
       </c>
       <c r="F10">
-        <v>0.004723466079956096</v>
+        <v>0.0001857755882886839</v>
       </c>
       <c r="G10">
-        <v>-0.007302973885079243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01596962129399923</v>
+      </c>
+      <c r="H10">
+        <v>-0.02027054660068231</v>
+      </c>
+      <c r="I10">
+        <v>-0.1171732499217139</v>
+      </c>
+      <c r="J10">
+        <v>-0.04227319497625558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05949488590144069</v>
+        <v>0.05091961373232016</v>
       </c>
       <c r="C11">
-        <v>-0.001715476129662689</v>
+        <v>0.0165353063220296</v>
       </c>
       <c r="D11">
-        <v>0.01458806824895692</v>
+        <v>0.00380408767224144</v>
       </c>
       <c r="E11">
-        <v>0.04343609499746362</v>
+        <v>0.04845086005708981</v>
       </c>
       <c r="F11">
-        <v>0.006312135717849348</v>
+        <v>0.00330428634912065</v>
       </c>
       <c r="G11">
-        <v>-0.005602018831634645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.004545385605392522</v>
+      </c>
+      <c r="H11">
+        <v>0.01941644654799828</v>
+      </c>
+      <c r="I11">
+        <v>0.01419482106685201</v>
+      </c>
+      <c r="J11">
+        <v>-0.002942050000126346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04990529388739238</v>
+        <v>0.04927847993092906</v>
       </c>
       <c r="C12">
-        <v>0.002380466026672046</v>
+        <v>0.01678917806190851</v>
       </c>
       <c r="D12">
-        <v>0.007855212029365014</v>
+        <v>0.00680333255821017</v>
       </c>
       <c r="E12">
-        <v>0.02808898145175007</v>
+        <v>0.02482003537948164</v>
       </c>
       <c r="F12">
-        <v>-0.003309616714336563</v>
+        <v>0.01646021550142318</v>
       </c>
       <c r="G12">
-        <v>0.001637236764150978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0008734608949263871</v>
+      </c>
+      <c r="H12">
+        <v>0.007455866070484225</v>
+      </c>
+      <c r="I12">
+        <v>0.01921221108515368</v>
+      </c>
+      <c r="J12">
+        <v>0.000932224325632314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05857963939985798</v>
+        <v>0.04052515254810949</v>
       </c>
       <c r="C13">
-        <v>0.01576340438182154</v>
+        <v>0.0188058017847897</v>
       </c>
       <c r="D13">
-        <v>0.02555725843447498</v>
+        <v>0.001480182807429924</v>
       </c>
       <c r="E13">
-        <v>0.1128062313071073</v>
+        <v>0.1059674486451239</v>
       </c>
       <c r="F13">
-        <v>0.01896920639847157</v>
+        <v>0.01147527573289228</v>
       </c>
       <c r="G13">
-        <v>0.04243227076303497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.004372103512500247</v>
+      </c>
+      <c r="H13">
+        <v>0.05486714284884009</v>
+      </c>
+      <c r="I13">
+        <v>-0.02152318986449726</v>
+      </c>
+      <c r="J13">
+        <v>0.006949598207634411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.0376617600533679</v>
+        <v>0.0289991758987131</v>
       </c>
       <c r="C14">
-        <v>0.004969020053608443</v>
+        <v>0.01255100781529356</v>
       </c>
       <c r="D14">
-        <v>-0.01439916810593554</v>
+        <v>0.01997496765826856</v>
       </c>
       <c r="E14">
-        <v>0.0263306468543895</v>
+        <v>0.03795632702056798</v>
       </c>
       <c r="F14">
-        <v>0.00202719649408743</v>
+        <v>0.02137475453588776</v>
       </c>
       <c r="G14">
-        <v>0.04459578941673785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01498072802656715</v>
+      </c>
+      <c r="H14">
+        <v>0.06216297877262846</v>
+      </c>
+      <c r="I14">
+        <v>-0.02147459897811113</v>
+      </c>
+      <c r="J14">
+        <v>-0.007463409131018188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.0521779404243168</v>
+        <v>0.04366892439334414</v>
       </c>
       <c r="C16">
-        <v>0.01659810071753662</v>
+        <v>0.02553090662555481</v>
       </c>
       <c r="D16">
-        <v>0.02462774622815744</v>
+        <v>-0.002694849375776989</v>
       </c>
       <c r="E16">
-        <v>0.0400232108127969</v>
+        <v>0.04448383809857721</v>
       </c>
       <c r="F16">
-        <v>-4.521378470899228e-06</v>
+        <v>0.007570643773989915</v>
       </c>
       <c r="G16">
-        <v>-0.005907361539657634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.002398844924984034</v>
+      </c>
+      <c r="H16">
+        <v>0.01874022526560157</v>
+      </c>
+      <c r="I16">
+        <v>0.01418097457119023</v>
+      </c>
+      <c r="J16">
+        <v>-0.005908419689880881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04867949420510669</v>
+        <v>0.04851340072434795</v>
       </c>
       <c r="C19">
-        <v>0.02774944995195742</v>
+        <v>0.03095140561610808</v>
       </c>
       <c r="D19">
-        <v>0.01175442984430332</v>
+        <v>0.00282404154944943</v>
       </c>
       <c r="E19">
-        <v>0.07744598524597894</v>
+        <v>0.09291629480427083</v>
       </c>
       <c r="F19">
-        <v>0.00439409526153297</v>
+        <v>0.0348604112646804</v>
       </c>
       <c r="G19">
-        <v>0.06682370622701006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.002545670430155206</v>
+      </c>
+      <c r="H19">
+        <v>0.07398548853395275</v>
+      </c>
+      <c r="I19">
+        <v>-0.06000579372533113</v>
+      </c>
+      <c r="J19">
+        <v>0.004888026540582056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03594428275068583</v>
+        <v>0.01921673220543436</v>
       </c>
       <c r="C20">
-        <v>0.02953883395213937</v>
+        <v>0.0299393803478341</v>
       </c>
       <c r="D20">
-        <v>0.003332064890014971</v>
+        <v>0.009921431661891911</v>
       </c>
       <c r="E20">
-        <v>0.076476514536763</v>
+        <v>0.07180158347464527</v>
       </c>
       <c r="F20">
-        <v>-0.004745569346781166</v>
+        <v>0.03687028141220196</v>
       </c>
       <c r="G20">
-        <v>0.05604373471098365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.004804667690309492</v>
+      </c>
+      <c r="H20">
+        <v>0.07416453879885505</v>
+      </c>
+      <c r="I20">
+        <v>-0.01640783869049416</v>
+      </c>
+      <c r="J20">
+        <v>-0.03963006896102054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03805702997963671</v>
+        <v>0.01754612025086939</v>
       </c>
       <c r="C21">
-        <v>0.01222480744824857</v>
+        <v>0.02227083572309908</v>
       </c>
       <c r="D21">
-        <v>0.02108092639892336</v>
+        <v>-0.01034368077292705</v>
       </c>
       <c r="E21">
-        <v>0.08855328878082788</v>
+        <v>0.08200681588198326</v>
       </c>
       <c r="F21">
-        <v>0.04029687710752066</v>
+        <v>0.0297427857585174</v>
       </c>
       <c r="G21">
-        <v>0.04517323099400437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01860177491001344</v>
+      </c>
+      <c r="H21">
+        <v>0.0460440539165658</v>
+      </c>
+      <c r="I21">
+        <v>0.004712894275674946</v>
+      </c>
+      <c r="J21">
+        <v>0.01644708649833995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04723555310919769</v>
+        <v>0.04121517889796292</v>
       </c>
       <c r="C24">
-        <v>0.009370766238528241</v>
+        <v>0.01524984014150517</v>
       </c>
       <c r="D24">
-        <v>0.01232610951031718</v>
+        <v>0.003429193268179179</v>
       </c>
       <c r="E24">
-        <v>0.05417972748417982</v>
+        <v>0.04903367822187028</v>
       </c>
       <c r="F24">
-        <v>0.00294951217551367</v>
+        <v>0.0084105870007489</v>
       </c>
       <c r="G24">
-        <v>-0.008679042542841631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.008390704120743353</v>
+      </c>
+      <c r="H24">
+        <v>0.01559801922792566</v>
+      </c>
+      <c r="I24">
+        <v>0.01136652077417682</v>
+      </c>
+      <c r="J24">
+        <v>-0.009718226000950639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05087828541713223</v>
+        <v>0.0447273669091372</v>
       </c>
       <c r="C25">
-        <v>-0.00128233950522968</v>
+        <v>0.0151969585513441</v>
       </c>
       <c r="D25">
-        <v>0.01273335266648134</v>
+        <v>0.001798899907663702</v>
       </c>
       <c r="E25">
-        <v>0.04219240115149619</v>
+        <v>0.04869413922551379</v>
       </c>
       <c r="F25">
-        <v>0.003177239953377132</v>
+        <v>0.01149311013316239</v>
       </c>
       <c r="G25">
-        <v>-0.00943330969855369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003314730411380306</v>
+      </c>
+      <c r="H25">
+        <v>0.009338351212887619</v>
+      </c>
+      <c r="I25">
+        <v>0.01482273572748893</v>
+      </c>
+      <c r="J25">
+        <v>0.0007744004306378786</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.001887630565069067</v>
+        <v>0.009306618943758284</v>
       </c>
       <c r="C26">
-        <v>0.01508627904402187</v>
+        <v>0.01512114029562986</v>
       </c>
       <c r="D26">
-        <v>-0.001693514256117915</v>
+        <v>-0.005526711882450453</v>
       </c>
       <c r="E26">
-        <v>0.05778587440676791</v>
+        <v>0.06027695448359218</v>
       </c>
       <c r="F26">
-        <v>0.02264685491116915</v>
+        <v>0.001944045872714451</v>
       </c>
       <c r="G26">
-        <v>0.01876421282901629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.009876666088530744</v>
+      </c>
+      <c r="H26">
+        <v>0.0355422276299031</v>
+      </c>
+      <c r="I26">
+        <v>0.002642070249721165</v>
+      </c>
+      <c r="J26">
+        <v>-0.02342284082889237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1091642266118169</v>
+        <v>0.0899677412514666</v>
       </c>
       <c r="C27">
-        <v>0.00406657047351265</v>
+        <v>0.01784189931010521</v>
       </c>
       <c r="D27">
-        <v>-0.007837459704378108</v>
+        <v>0.02787915158698603</v>
       </c>
       <c r="E27">
-        <v>0.1102807577593184</v>
+        <v>0.08320448117582416</v>
       </c>
       <c r="F27">
-        <v>0.004574795242327517</v>
+        <v>0.04342998589945901</v>
       </c>
       <c r="G27">
-        <v>-0.01790439871813388</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0005054347414232031</v>
+      </c>
+      <c r="H27">
+        <v>0.008551316722680053</v>
+      </c>
+      <c r="I27">
+        <v>0.001669728620240234</v>
+      </c>
+      <c r="J27">
+        <v>-0.0228130523299886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02525992314329703</v>
+        <v>0.01174821906843362</v>
       </c>
       <c r="C28">
-        <v>-0.2356360629162988</v>
+        <v>-0.2305370677663054</v>
       </c>
       <c r="D28">
-        <v>0.01943238935132736</v>
+        <v>-0.0155313222983942</v>
       </c>
       <c r="E28">
-        <v>0.02149330844999515</v>
+        <v>0.04102318561738694</v>
       </c>
       <c r="F28">
-        <v>0.006422202612712348</v>
+        <v>-0.004391899268463741</v>
       </c>
       <c r="G28">
-        <v>-0.04346592655091238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02091683871666195</v>
+      </c>
+      <c r="H28">
+        <v>-0.04150200837843837</v>
+      </c>
+      <c r="I28">
+        <v>-0.156433777811587</v>
+      </c>
+      <c r="J28">
+        <v>-0.06762875278122954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02104409424566257</v>
+        <v>0.01997202584418372</v>
       </c>
       <c r="C29">
-        <v>0.01498244689462794</v>
+        <v>0.01778014895874265</v>
       </c>
       <c r="D29">
-        <v>-0.01482553076591327</v>
+        <v>0.01641052608598412</v>
       </c>
       <c r="E29">
-        <v>0.04145601839833865</v>
+        <v>0.03682149558266696</v>
       </c>
       <c r="F29">
-        <v>0.01699296694626858</v>
+        <v>0.03204858413259171</v>
       </c>
       <c r="G29">
-        <v>0.04680282703057942</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01947055685506081</v>
+      </c>
+      <c r="H29">
+        <v>0.06088255718279749</v>
+      </c>
+      <c r="I29">
+        <v>-0.01068836287683331</v>
+      </c>
+      <c r="J29">
+        <v>-0.01098282759737205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1056042880507643</v>
+        <v>0.1034680360268512</v>
       </c>
       <c r="C30">
-        <v>0.001008230283567388</v>
+        <v>0.02817516972218581</v>
       </c>
       <c r="D30">
-        <v>0.00230058010392038</v>
+        <v>0.02511343972139434</v>
       </c>
       <c r="E30">
-        <v>0.1324886708204709</v>
+        <v>0.1139678531582</v>
       </c>
       <c r="F30">
-        <v>0.01064660520965591</v>
+        <v>0.02010054854009893</v>
       </c>
       <c r="G30">
-        <v>-0.07475897554173401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.0231622486554964</v>
+      </c>
+      <c r="H30">
+        <v>0.01005163799973189</v>
+      </c>
+      <c r="I30">
+        <v>0.03109605511414075</v>
+      </c>
+      <c r="J30">
+        <v>0.01524555311667707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05648210276094339</v>
+        <v>0.0566531113528294</v>
       </c>
       <c r="C31">
-        <v>0.009327431647943108</v>
+        <v>0.01587558357163123</v>
       </c>
       <c r="D31">
-        <v>-0.01362369623321916</v>
+        <v>0.0147789331551738</v>
       </c>
       <c r="E31">
-        <v>-0.005291304889572078</v>
+        <v>0.01759548149214941</v>
       </c>
       <c r="F31">
-        <v>0.02044559771223904</v>
+        <v>-0.01530901221915389</v>
       </c>
       <c r="G31">
-        <v>0.021446104521997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03763959396202527</v>
+      </c>
+      <c r="H31">
+        <v>0.05007566839928344</v>
+      </c>
+      <c r="I31">
+        <v>-0.01788519890926142</v>
+      </c>
+      <c r="J31">
+        <v>-0.01044516742391478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06722223511560051</v>
+        <v>0.04820190039251485</v>
       </c>
       <c r="C32">
-        <v>0.01770686462711179</v>
+        <v>0.04050681726895074</v>
       </c>
       <c r="D32">
-        <v>0.003148871543176521</v>
+        <v>0.01376556810852815</v>
       </c>
       <c r="E32">
-        <v>0.123576349637585</v>
+        <v>0.101550134216998</v>
       </c>
       <c r="F32">
-        <v>-0.0147801621654531</v>
+        <v>0.04415868115995075</v>
       </c>
       <c r="G32">
-        <v>0.03370691595617812</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01321062495582852</v>
+      </c>
+      <c r="H32">
+        <v>0.05792409441397251</v>
+      </c>
+      <c r="I32">
+        <v>-0.02403790419418112</v>
+      </c>
+      <c r="J32">
+        <v>0.01699966239242624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.0694195397508303</v>
+        <v>0.05966415392315418</v>
       </c>
       <c r="C33">
-        <v>0.02301135402766812</v>
+        <v>0.03867111673476876</v>
       </c>
       <c r="D33">
-        <v>0.001347730679567636</v>
+        <v>0.00122325917228094</v>
       </c>
       <c r="E33">
-        <v>0.07687021290183572</v>
+        <v>0.08899022580687391</v>
       </c>
       <c r="F33">
-        <v>0.03647074226727879</v>
+        <v>0.01464504851433553</v>
       </c>
       <c r="G33">
-        <v>0.02236716901057072</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01739793690251033</v>
+      </c>
+      <c r="H33">
+        <v>0.05157684114606827</v>
+      </c>
+      <c r="I33">
+        <v>0.01252551555631132</v>
+      </c>
+      <c r="J33">
+        <v>-0.008187516423717407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04779415510579429</v>
+        <v>0.0428071063559442</v>
       </c>
       <c r="C34">
-        <v>0.009220086052275922</v>
+        <v>0.02126582264813777</v>
       </c>
       <c r="D34">
-        <v>0.01121986516455941</v>
+        <v>0.00746995568160054</v>
       </c>
       <c r="E34">
-        <v>0.02725906149016181</v>
+        <v>0.03890285596194205</v>
       </c>
       <c r="F34">
-        <v>-0.002190743621436541</v>
+        <v>0.008161383177548602</v>
       </c>
       <c r="G34">
-        <v>0.01131916780093742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0003572986254768707</v>
+      </c>
+      <c r="H34">
+        <v>0.02221424163229225</v>
+      </c>
+      <c r="I34">
+        <v>0.01172157161157979</v>
+      </c>
+      <c r="J34">
+        <v>0.005906758165138266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01145085846045598</v>
+        <v>0.01330088790161074</v>
       </c>
       <c r="C36">
-        <v>-0.01146184817263435</v>
+        <v>-0.0008818370763084875</v>
       </c>
       <c r="D36">
-        <v>-0.002895048127986548</v>
+        <v>0.00602745358144815</v>
       </c>
       <c r="E36">
-        <v>0.0291317871232997</v>
+        <v>0.03029244145635691</v>
       </c>
       <c r="F36">
-        <v>0.01462051094736635</v>
+        <v>0.01307573145175525</v>
       </c>
       <c r="G36">
-        <v>0.0163930418622438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01807829985575342</v>
+      </c>
+      <c r="H36">
+        <v>0.03444250781978066</v>
+      </c>
+      <c r="I36">
+        <v>-0.008116756002858874</v>
+      </c>
+      <c r="J36">
+        <v>-0.0006498651727482235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05458760392692485</v>
+        <v>0.03050529946380544</v>
       </c>
       <c r="C38">
-        <v>0.002439883579488277</v>
+        <v>0.006983562661314818</v>
       </c>
       <c r="D38">
-        <v>-0.01729132162433089</v>
+        <v>0.005451178239280784</v>
       </c>
       <c r="E38">
-        <v>0.03795186906804673</v>
+        <v>0.04702966109677185</v>
       </c>
       <c r="F38">
-        <v>0.00975212965478698</v>
+        <v>0.02229416121565839</v>
       </c>
       <c r="G38">
-        <v>0.02914233250702981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01887859083153201</v>
+      </c>
+      <c r="H38">
+        <v>0.01135377944025495</v>
+      </c>
+      <c r="I38">
+        <v>-0.004831130415763467</v>
+      </c>
+      <c r="J38">
+        <v>0.01653174824986821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07650520562374417</v>
+        <v>0.06288755355229712</v>
       </c>
       <c r="C39">
-        <v>0.006370278550770088</v>
+        <v>0.02903680579440205</v>
       </c>
       <c r="D39">
-        <v>0.006828847246723553</v>
+        <v>0.01772715655466196</v>
       </c>
       <c r="E39">
-        <v>0.05096848191054425</v>
+        <v>0.0635635470934767</v>
       </c>
       <c r="F39">
-        <v>0.01920500480499682</v>
+        <v>0.002453672812780475</v>
       </c>
       <c r="G39">
-        <v>-0.006851771414606633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.009347169044693626</v>
+      </c>
+      <c r="H39">
+        <v>0.01939357521388864</v>
+      </c>
+      <c r="I39">
+        <v>0.0273886285232601</v>
+      </c>
+      <c r="J39">
+        <v>0.005801165687118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.0726090736169627</v>
+        <v>0.05655312972622473</v>
       </c>
       <c r="C40">
-        <v>0.02656152435852907</v>
+        <v>0.03229258870331891</v>
       </c>
       <c r="D40">
-        <v>0.01524949379343662</v>
+        <v>0.0169179768503043</v>
       </c>
       <c r="E40">
-        <v>0.1164688694593465</v>
+        <v>0.1129969323858518</v>
       </c>
       <c r="F40">
-        <v>0.03121862364469671</v>
+        <v>0.0057189360395539</v>
       </c>
       <c r="G40">
-        <v>0.08392133130254649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0005332469091070462</v>
+      </c>
+      <c r="H40">
+        <v>0.08017523546121406</v>
+      </c>
+      <c r="I40">
+        <v>-0.0170368289503093</v>
+      </c>
+      <c r="J40">
+        <v>-0.01252857151008373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003349532261926518</v>
+        <v>0.0008934790927651829</v>
       </c>
       <c r="C41">
-        <v>0.009193713464966663</v>
+        <v>0.009114288424366363</v>
       </c>
       <c r="D41">
-        <v>-0.0113922020345695</v>
+        <v>0.00302998443996598</v>
       </c>
       <c r="E41">
-        <v>0.01846386836753343</v>
+        <v>0.01918732096664759</v>
       </c>
       <c r="F41">
-        <v>0.02833937491922624</v>
+        <v>0.008945529204419439</v>
       </c>
       <c r="G41">
-        <v>0.03057736894137611</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03007776642042737</v>
+      </c>
+      <c r="H41">
+        <v>0.03991583528233328</v>
+      </c>
+      <c r="I41">
+        <v>-0.0236980170706888</v>
+      </c>
+      <c r="J41">
+        <v>-0.02075207635813487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1467231074805261</v>
+        <v>0.2492247927204792</v>
       </c>
       <c r="C42">
-        <v>0.1705583511421631</v>
+        <v>0.1117165578198149</v>
       </c>
       <c r="D42">
-        <v>0.921075957133095</v>
+        <v>-0.911926294193401</v>
       </c>
       <c r="E42">
-        <v>-0.1345572991424073</v>
+        <v>-0.1373076626544332</v>
       </c>
       <c r="F42">
-        <v>-0.03345573204429555</v>
+        <v>-0.2054576865692649</v>
       </c>
       <c r="G42">
-        <v>-0.1557269525717994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.006973804149183529</v>
+      </c>
+      <c r="H42">
+        <v>-0.01368058788717423</v>
+      </c>
+      <c r="I42">
+        <v>-0.04263303159953181</v>
+      </c>
+      <c r="J42">
+        <v>-0.03045496733893151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008164996623649317</v>
+        <v>0.002607004993233114</v>
       </c>
       <c r="C43">
-        <v>0.01107906613687703</v>
+        <v>0.0116044180563166</v>
       </c>
       <c r="D43">
-        <v>-0.01271711814847858</v>
+        <v>0.003243511518641047</v>
       </c>
       <c r="E43">
-        <v>0.03894810454011986</v>
+        <v>0.03178670617790351</v>
       </c>
       <c r="F43">
-        <v>0.0006216041629400901</v>
+        <v>0.009501044818123897</v>
       </c>
       <c r="G43">
-        <v>0.02547229767681966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008239384159581163</v>
+      </c>
+      <c r="H43">
+        <v>0.0368950782349968</v>
+      </c>
+      <c r="I43">
+        <v>-0.01333897458597465</v>
+      </c>
+      <c r="J43">
+        <v>-0.0165959108333164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.045011410529004</v>
+        <v>0.02969201531124637</v>
       </c>
       <c r="C44">
-        <v>0.03265527096897691</v>
+        <v>0.03018504337197332</v>
       </c>
       <c r="D44">
-        <v>0.009078308884063736</v>
+        <v>-0.005522267235140601</v>
       </c>
       <c r="E44">
-        <v>0.1155712766459042</v>
+        <v>0.1198624585683227</v>
       </c>
       <c r="F44">
-        <v>0.06054635906419073</v>
+        <v>0.03942228470314862</v>
       </c>
       <c r="G44">
-        <v>0.122035839385046</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02959149284802342</v>
+      </c>
+      <c r="H44">
+        <v>0.1146088872916053</v>
+      </c>
+      <c r="I44">
+        <v>-0.0379496422378164</v>
+      </c>
+      <c r="J44">
+        <v>0.001940239970653512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02206515196407928</v>
+        <v>0.02099872614233796</v>
       </c>
       <c r="C46">
-        <v>0.01224816669178711</v>
+        <v>0.02353731202482339</v>
       </c>
       <c r="D46">
-        <v>-0.0207144492242474</v>
+        <v>0.01460459588890004</v>
       </c>
       <c r="E46">
-        <v>0.02654490192129674</v>
+        <v>0.04695723871821332</v>
       </c>
       <c r="F46">
-        <v>0.03009869961332313</v>
+        <v>0.01558391075813404</v>
       </c>
       <c r="G46">
-        <v>0.04361895879574394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01856215479773089</v>
+      </c>
+      <c r="H46">
+        <v>0.06340474978094546</v>
+      </c>
+      <c r="I46">
+        <v>-0.01413400025517975</v>
+      </c>
+      <c r="J46">
+        <v>-0.02832205223817837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08000096474300848</v>
+        <v>0.08784398147294471</v>
       </c>
       <c r="C47">
-        <v>0.002500717954502013</v>
+        <v>0.01281632976913554</v>
       </c>
       <c r="D47">
-        <v>-0.01628071486597335</v>
+        <v>0.02187242290126163</v>
       </c>
       <c r="E47">
-        <v>-0.007945450798463193</v>
+        <v>0.00359500353464109</v>
       </c>
       <c r="F47">
-        <v>0.01301447368343361</v>
+        <v>-0.001996654816547126</v>
       </c>
       <c r="G47">
-        <v>0.04634885996688873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03505765167891633</v>
+      </c>
+      <c r="H47">
+        <v>0.06923727082971412</v>
+      </c>
+      <c r="I47">
+        <v>-0.02469504332705883</v>
+      </c>
+      <c r="J47">
+        <v>-0.0195339487893815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01375048852683146</v>
+        <v>0.01397527485384242</v>
       </c>
       <c r="C48">
-        <v>0.01333925204635613</v>
+        <v>0.01682413744228459</v>
       </c>
       <c r="D48">
-        <v>-0.01011557622965224</v>
+        <v>0.004585224713688989</v>
       </c>
       <c r="E48">
-        <v>0.03956946522635631</v>
+        <v>0.04121891115566929</v>
       </c>
       <c r="F48">
-        <v>0.01926714753832367</v>
+        <v>0.01426838431529943</v>
       </c>
       <c r="G48">
-        <v>0.01125065720190321</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01060527438153584</v>
+      </c>
+      <c r="H48">
+        <v>0.02361369214515601</v>
+      </c>
+      <c r="I48">
+        <v>-0.01126928948994152</v>
+      </c>
+      <c r="J48">
+        <v>-0.01756435214419649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.0790070275583817</v>
+        <v>0.08099049113049295</v>
       </c>
       <c r="C50">
-        <v>0.02531571455905028</v>
+        <v>0.03320543903355446</v>
       </c>
       <c r="D50">
-        <v>-0.01800060932480338</v>
+        <v>0.01576102614059163</v>
       </c>
       <c r="E50">
-        <v>-0.01645089051794493</v>
+        <v>0.01108676949433328</v>
       </c>
       <c r="F50">
-        <v>0.01771020607894866</v>
+        <v>0.001036191488083851</v>
       </c>
       <c r="G50">
-        <v>0.02359200410771655</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.008689384274351042</v>
+      </c>
+      <c r="H50">
+        <v>0.05078761094013466</v>
+      </c>
+      <c r="I50">
+        <v>-0.02038715184839136</v>
+      </c>
+      <c r="J50">
+        <v>0.02130295533315596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06706046397334482</v>
+        <v>0.04797395384340346</v>
       </c>
       <c r="C51">
-        <v>-0.02566831018858242</v>
+        <v>-0.008497988241101165</v>
       </c>
       <c r="D51">
-        <v>0.001920378620115132</v>
+        <v>0.005202342364956759</v>
       </c>
       <c r="E51">
-        <v>0.06700287586481984</v>
+        <v>0.1001500282405196</v>
       </c>
       <c r="F51">
-        <v>0.0577441673791476</v>
+        <v>0.004461682008862867</v>
       </c>
       <c r="G51">
-        <v>0.01250374306635946</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04384240925282375</v>
+      </c>
+      <c r="H51">
+        <v>0.05590257405513539</v>
+      </c>
+      <c r="I51">
+        <v>-0.03909154898016143</v>
+      </c>
+      <c r="J51">
+        <v>-0.02222058331707652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1469121663348117</v>
+        <v>0.1290421180175382</v>
       </c>
       <c r="C53">
-        <v>0.004120047793250338</v>
+        <v>0.03461620859861783</v>
       </c>
       <c r="D53">
-        <v>-0.04284597300458044</v>
+        <v>0.0483918077790844</v>
       </c>
       <c r="E53">
-        <v>-0.01768720284196936</v>
+        <v>-0.02253634903612126</v>
       </c>
       <c r="F53">
-        <v>0.006625467653695444</v>
+        <v>-0.01022665093802265</v>
       </c>
       <c r="G53">
-        <v>0.02046443620451492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02889957761415664</v>
+      </c>
+      <c r="H53">
+        <v>0.01473274367419123</v>
+      </c>
+      <c r="I53">
+        <v>-0.01357612665477088</v>
+      </c>
+      <c r="J53">
+        <v>-0.07797347097950978</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02147219284739938</v>
+        <v>0.02147205506192928</v>
       </c>
       <c r="C54">
-        <v>-0.008347398922078648</v>
+        <v>0.001991396760564871</v>
       </c>
       <c r="D54">
-        <v>-0.02133552046479104</v>
+        <v>0.023762827480714</v>
       </c>
       <c r="E54">
-        <v>0.03782684844236211</v>
+        <v>0.04063572686428433</v>
       </c>
       <c r="F54">
-        <v>0.04788935579457528</v>
+        <v>0.02563968062189724</v>
       </c>
       <c r="G54">
-        <v>0.05934022130523353</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03762152989153569</v>
+      </c>
+      <c r="H54">
+        <v>0.06891106594016815</v>
+      </c>
+      <c r="I54">
+        <v>-0.04509813691866667</v>
+      </c>
+      <c r="J54">
+        <v>-0.01109427437544301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09749746542445489</v>
+        <v>0.1024309247750257</v>
       </c>
       <c r="C55">
-        <v>-0.005013117296609185</v>
+        <v>0.01548413180699847</v>
       </c>
       <c r="D55">
-        <v>-0.03409587390473776</v>
+        <v>0.03181693268929126</v>
       </c>
       <c r="E55">
-        <v>0.01715159602157997</v>
+        <v>-0.02019918326321196</v>
       </c>
       <c r="F55">
-        <v>-0.01461258389438582</v>
+        <v>0.03030349518220612</v>
       </c>
       <c r="G55">
-        <v>0.01197670024437993</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0008018867075861454</v>
+      </c>
+      <c r="H55">
+        <v>0.02978139258757894</v>
+      </c>
+      <c r="I55">
+        <v>0.003952142726212136</v>
+      </c>
+      <c r="J55">
+        <v>-0.07182693860414356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1804115294328593</v>
+        <v>0.1684606751015126</v>
       </c>
       <c r="C56">
-        <v>-0.02725103287725708</v>
+        <v>0.01560715496749331</v>
       </c>
       <c r="D56">
-        <v>-0.08826862448222256</v>
+        <v>0.09100156436219282</v>
       </c>
       <c r="E56">
-        <v>-0.05652132812846267</v>
+        <v>-0.07264599091037056</v>
       </c>
       <c r="F56">
-        <v>-0.05513324689965865</v>
+        <v>0.0003953108940127656</v>
       </c>
       <c r="G56">
-        <v>-0.005926220346515548</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01917866486783937</v>
+      </c>
+      <c r="H56">
+        <v>-0.03154195636155362</v>
+      </c>
+      <c r="I56">
+        <v>0.03075790503596169</v>
+      </c>
+      <c r="J56">
+        <v>-0.08871355052718008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09413916556037878</v>
+        <v>0.07387037702955275</v>
       </c>
       <c r="C57">
-        <v>0.01770696036218012</v>
+        <v>0.022093366195289</v>
       </c>
       <c r="D57">
-        <v>-0.01538493924836379</v>
+        <v>0.00803091325907487</v>
       </c>
       <c r="E57">
-        <v>0.0734523143466745</v>
+        <v>0.079123735007374</v>
       </c>
       <c r="F57">
-        <v>0.002569326655064541</v>
+        <v>0.01222664258747048</v>
       </c>
       <c r="G57">
-        <v>0.04033389337720545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0020141979536116</v>
+      </c>
+      <c r="H57">
+        <v>0.04835541040781509</v>
+      </c>
+      <c r="I57">
+        <v>0.01514113016280928</v>
+      </c>
+      <c r="J57">
+        <v>-0.01979233657869952</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1621221325217614</v>
+        <v>0.1984246609865001</v>
       </c>
       <c r="C58">
-        <v>0.001975848924611271</v>
+        <v>0.03000535285212295</v>
       </c>
       <c r="D58">
-        <v>0.06859299036619265</v>
+        <v>-0.02109736928005112</v>
       </c>
       <c r="E58">
-        <v>0.1060143280290674</v>
+        <v>0.1665791903543121</v>
       </c>
       <c r="F58">
-        <v>-0.0865984124768807</v>
+        <v>0.03269611964221023</v>
       </c>
       <c r="G58">
-        <v>0.2491977110238076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1866058397504696</v>
+      </c>
+      <c r="H58">
+        <v>0.3128500700249353</v>
+      </c>
+      <c r="I58">
+        <v>-0.1418110285569879</v>
+      </c>
+      <c r="J58">
+        <v>0.3774422336218289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01455137404653793</v>
+        <v>0.0176457493432166</v>
       </c>
       <c r="C59">
-        <v>-0.2030620341841246</v>
+        <v>-0.1997416362502613</v>
       </c>
       <c r="D59">
-        <v>-0.01740413955536933</v>
+        <v>0.0199760215676188</v>
       </c>
       <c r="E59">
-        <v>0.04048298041634178</v>
+        <v>0.05491297553414579</v>
       </c>
       <c r="F59">
-        <v>0.005081935353234954</v>
+        <v>-0.01479760453093991</v>
       </c>
       <c r="G59">
-        <v>-0.03869425221468623</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0009807469599922044</v>
+      </c>
+      <c r="H59">
+        <v>-0.03098073643499254</v>
+      </c>
+      <c r="I59">
+        <v>-0.08221686032875777</v>
+      </c>
+      <c r="J59">
+        <v>-0.01710716987712158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1752136691241994</v>
+        <v>0.1790998750504257</v>
       </c>
       <c r="C60">
-        <v>-0.1296616046566523</v>
+        <v>-0.07027577959924024</v>
       </c>
       <c r="D60">
-        <v>-0.01583981427120135</v>
+        <v>0.02315321878783751</v>
       </c>
       <c r="E60">
-        <v>0.1816893000727711</v>
+        <v>0.2043987673985764</v>
       </c>
       <c r="F60">
-        <v>0.03878962139411121</v>
+        <v>-0.0354316281725538</v>
       </c>
       <c r="G60">
-        <v>-0.1636188193052838</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05951268450126665</v>
+      </c>
+      <c r="H60">
+        <v>-0.2299205563148299</v>
+      </c>
+      <c r="I60">
+        <v>0.1148414599491561</v>
+      </c>
+      <c r="J60">
+        <v>0.01225114891139559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04946043991519244</v>
+        <v>0.03871978840015033</v>
       </c>
       <c r="C61">
-        <v>0.001608352271564191</v>
+        <v>0.01559447751174814</v>
       </c>
       <c r="D61">
-        <v>0.01272737054491054</v>
+        <v>0.0003922637006004799</v>
       </c>
       <c r="E61">
-        <v>0.04621977157368039</v>
+        <v>0.04824696004237047</v>
       </c>
       <c r="F61">
-        <v>0.01633815538951077</v>
+        <v>0.005168643876576197</v>
       </c>
       <c r="G61">
-        <v>-0.02347169673641467</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.006405580892015429</v>
+      </c>
+      <c r="H61">
+        <v>0.003938264572948656</v>
+      </c>
+      <c r="I61">
+        <v>0.0307260640939529</v>
+      </c>
+      <c r="J61">
+        <v>0.02190465189504671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.0378253879017075</v>
+        <v>0.02975125770746592</v>
       </c>
       <c r="C63">
-        <v>-0.01181884158181735</v>
+        <v>0.009035008470154175</v>
       </c>
       <c r="D63">
-        <v>-0.008363007987546722</v>
+        <v>0.007969992654098697</v>
       </c>
       <c r="E63">
-        <v>0.04530194067862596</v>
+        <v>0.03774504105619136</v>
       </c>
       <c r="F63">
-        <v>0.01332118551459103</v>
+        <v>0.01282663789364273</v>
       </c>
       <c r="G63">
-        <v>0.02107277372406257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.008535059674884982</v>
+      </c>
+      <c r="H63">
+        <v>0.04357532649567668</v>
+      </c>
+      <c r="I63">
+        <v>-0.0243479742462148</v>
+      </c>
+      <c r="J63">
+        <v>-0.05088487103167324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09026870465764801</v>
+        <v>0.06680419341576467</v>
       </c>
       <c r="C64">
-        <v>0.01817504949929235</v>
+        <v>0.03551898568251753</v>
       </c>
       <c r="D64">
-        <v>-0.04858554123854821</v>
+        <v>0.03268297725163484</v>
       </c>
       <c r="E64">
-        <v>0.07804949543773493</v>
+        <v>0.05824445096261499</v>
       </c>
       <c r="F64">
-        <v>0.09133847151654181</v>
+        <v>0.0576955910722557</v>
       </c>
       <c r="G64">
-        <v>-0.0426434140571238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06761914240471328</v>
+      </c>
+      <c r="H64">
+        <v>-0.01348227965718933</v>
+      </c>
+      <c r="I64">
+        <v>-0.00769908797603138</v>
+      </c>
+      <c r="J64">
+        <v>-0.07025929263210581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.0108628503667961</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004006632091248117</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0006622555882309655</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004490332906716788</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.002193726611984145</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01292818868443863</v>
+      </c>
+      <c r="H65">
+        <v>0.0023247034407695</v>
+      </c>
+      <c r="I65">
+        <v>-0.001027533698278745</v>
+      </c>
+      <c r="J65">
+        <v>0.001552574682526525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1021747527118191</v>
+        <v>0.07432904477171727</v>
       </c>
       <c r="C66">
-        <v>0.008837245354077721</v>
+        <v>0.0401435335554609</v>
       </c>
       <c r="D66">
-        <v>-0.02650102278573825</v>
+        <v>0.0403931338293865</v>
       </c>
       <c r="E66">
-        <v>0.09277115194227341</v>
+        <v>0.08804407603717387</v>
       </c>
       <c r="F66">
-        <v>0.03572701518897546</v>
+        <v>0.003561807296986312</v>
       </c>
       <c r="G66">
-        <v>-0.0007812164591778321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01147648890945541</v>
+      </c>
+      <c r="H66">
+        <v>0.01665272511454744</v>
+      </c>
+      <c r="I66">
+        <v>0.05044135108947888</v>
+      </c>
+      <c r="J66">
+        <v>-0.01067695593320346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06070098293308114</v>
+        <v>0.04025751573809622</v>
       </c>
       <c r="C67">
-        <v>-0.02063678045792366</v>
+        <v>-0.009505923595001001</v>
       </c>
       <c r="D67">
-        <v>-0.006735349291564852</v>
+        <v>0.004625958457838773</v>
       </c>
       <c r="E67">
-        <v>0.03186508613911097</v>
+        <v>0.04183751326499113</v>
       </c>
       <c r="F67">
-        <v>0.008623527210631386</v>
+        <v>0.007755326337034811</v>
       </c>
       <c r="G67">
-        <v>0.02784161224672267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02517890793720227</v>
+      </c>
+      <c r="H67">
+        <v>-0.001488400256125033</v>
+      </c>
+      <c r="I67">
+        <v>0.03519385100536192</v>
+      </c>
+      <c r="J67">
+        <v>0.01245270946594952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01347172069405452</v>
+        <v>0.02649935581410168</v>
       </c>
       <c r="C68">
-        <v>-0.245357464766528</v>
+        <v>-0.2381139478715322</v>
       </c>
       <c r="D68">
-        <v>0.004787236867497967</v>
+        <v>0.01095481336999699</v>
       </c>
       <c r="E68">
-        <v>0.02898677775953724</v>
+        <v>0.03978997475507712</v>
       </c>
       <c r="F68">
-        <v>-0.00994568845535408</v>
+        <v>-0.001862886514381581</v>
       </c>
       <c r="G68">
-        <v>-0.03019594916549517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01241444547392003</v>
+      </c>
+      <c r="H68">
+        <v>-0.03733782021864914</v>
+      </c>
+      <c r="I68">
+        <v>-0.1705701449376367</v>
+      </c>
+      <c r="J68">
+        <v>-0.04353728535934503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06515488818304849</v>
+        <v>0.06794523185513701</v>
       </c>
       <c r="C69">
-        <v>0.003808611489433488</v>
+        <v>0.01192166409071398</v>
       </c>
       <c r="D69">
-        <v>-0.02603627156100363</v>
+        <v>0.02920091890189094</v>
       </c>
       <c r="E69">
-        <v>0.0001258230661136292</v>
+        <v>0.01171988764111515</v>
       </c>
       <c r="F69">
-        <v>0.008833587238443056</v>
+        <v>-0.007639130336911427</v>
       </c>
       <c r="G69">
-        <v>0.0148792881113982</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02746764972646537</v>
+      </c>
+      <c r="H69">
+        <v>0.04822226568535211</v>
+      </c>
+      <c r="I69">
+        <v>0.0005421847061162913</v>
+      </c>
+      <c r="J69">
+        <v>-0.01306463027137276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.005063883525827195</v>
+        <v>0.03313531476503684</v>
       </c>
       <c r="C71">
-        <v>-0.2382542025520155</v>
+        <v>-0.24049654072091</v>
       </c>
       <c r="D71">
-        <v>0.009115523371614243</v>
+        <v>-0.01044055275632871</v>
       </c>
       <c r="E71">
-        <v>0.05257945654963891</v>
+        <v>0.0616799434248266</v>
       </c>
       <c r="F71">
-        <v>-0.0005090653872684472</v>
+        <v>-0.02865403968305514</v>
       </c>
       <c r="G71">
-        <v>-0.1193823556860116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.006745204003635643</v>
+      </c>
+      <c r="H71">
+        <v>-0.05234039593759848</v>
+      </c>
+      <c r="I71">
+        <v>-0.1561871780336505</v>
+      </c>
+      <c r="J71">
+        <v>0.001161517766802347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1050400557031499</v>
+        <v>0.1130431006641181</v>
       </c>
       <c r="C72">
-        <v>-0.02714132391024807</v>
+        <v>-0.009601805289854784</v>
       </c>
       <c r="D72">
-        <v>-0.04272126317419686</v>
+        <v>0.05989799750347553</v>
       </c>
       <c r="E72">
-        <v>0.06654696421957981</v>
+        <v>0.08295837292063833</v>
       </c>
       <c r="F72">
-        <v>0.006457008077967328</v>
+        <v>0.02239437968876376</v>
       </c>
       <c r="G72">
-        <v>0.02956803983191629</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02812514228726461</v>
+      </c>
+      <c r="H72">
+        <v>0.001412804542353623</v>
+      </c>
+      <c r="I72">
+        <v>-0.007467422162734007</v>
+      </c>
+      <c r="J72">
+        <v>0.05594737077166914</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2689313743763143</v>
+        <v>0.2725610605477747</v>
       </c>
       <c r="C73">
-        <v>-0.2261485808173256</v>
+        <v>-0.1455961836352373</v>
       </c>
       <c r="D73">
-        <v>0.02777576153389536</v>
+        <v>0.001228784655506691</v>
       </c>
       <c r="E73">
-        <v>0.2829987091970136</v>
+        <v>0.318106732488843</v>
       </c>
       <c r="F73">
-        <v>0.005061168113542014</v>
+        <v>-0.07474329820363208</v>
       </c>
       <c r="G73">
-        <v>-0.4016228722536802</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1364579932224445</v>
+      </c>
+      <c r="H73">
+        <v>-0.4209476885547052</v>
+      </c>
+      <c r="I73">
+        <v>0.3278419277705884</v>
+      </c>
+      <c r="J73">
+        <v>0.2246429834169384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1554424228890607</v>
+        <v>0.1523291051857972</v>
       </c>
       <c r="C74">
-        <v>-0.01338772809883362</v>
+        <v>0.0100212259421143</v>
       </c>
       <c r="D74">
-        <v>-0.05124996836035028</v>
+        <v>0.04875205591441899</v>
       </c>
       <c r="E74">
-        <v>0.007831992008052945</v>
+        <v>-0.0304291478482549</v>
       </c>
       <c r="F74">
-        <v>-0.04217948191855471</v>
+        <v>-0.0009720820186333227</v>
       </c>
       <c r="G74">
-        <v>-0.01550660502486686</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01390144914367406</v>
+      </c>
+      <c r="H74">
+        <v>-0.02200414628909585</v>
+      </c>
+      <c r="I74">
+        <v>0.03271088052372087</v>
+      </c>
+      <c r="J74">
+        <v>-0.09607924234358081</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2365222977276677</v>
+        <v>0.2441609626617026</v>
       </c>
       <c r="C75">
-        <v>-0.02344921473276167</v>
+        <v>0.0201172696596812</v>
       </c>
       <c r="D75">
-        <v>-0.06973717560926013</v>
+        <v>0.105375555716486</v>
       </c>
       <c r="E75">
-        <v>-0.103061039892242</v>
+        <v>-0.1178116569371938</v>
       </c>
       <c r="F75">
-        <v>-0.04270483230883482</v>
+        <v>-0.02723791386174475</v>
       </c>
       <c r="G75">
-        <v>0.007161352532903193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.01223120194821097</v>
+      </c>
+      <c r="H75">
+        <v>-0.01032584755575826</v>
+      </c>
+      <c r="I75">
+        <v>0.002670145044477457</v>
+      </c>
+      <c r="J75">
+        <v>-0.1745562730340741</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2403739803046598</v>
+        <v>0.2585251702073992</v>
       </c>
       <c r="C76">
-        <v>-0.02237105156757051</v>
+        <v>0.01265255882925419</v>
       </c>
       <c r="D76">
-        <v>-0.111317195033534</v>
+        <v>0.133034929499371</v>
       </c>
       <c r="E76">
-        <v>-0.08443584067068657</v>
+        <v>-0.1456263114797972</v>
       </c>
       <c r="F76">
-        <v>-0.05048649563131403</v>
+        <v>0.0006909030739243043</v>
       </c>
       <c r="G76">
-        <v>-0.01073870349444653</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.02140231803978732</v>
+      </c>
+      <c r="H76">
+        <v>-0.008343962520169456</v>
+      </c>
+      <c r="I76">
+        <v>0.06735999798424949</v>
+      </c>
+      <c r="J76">
+        <v>-0.1695045031712698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1258922035810756</v>
+        <v>0.1323986385892229</v>
       </c>
       <c r="C77">
-        <v>0.01082545633229417</v>
+        <v>0.04175275272045965</v>
       </c>
       <c r="D77">
-        <v>0.07558633904321364</v>
+        <v>-0.05742101085879132</v>
       </c>
       <c r="E77">
-        <v>0.1618288867957006</v>
+        <v>0.1630648229484289</v>
       </c>
       <c r="F77">
-        <v>-0.004853211380087253</v>
+        <v>0.04721330770085023</v>
       </c>
       <c r="G77">
-        <v>0.1349740721330356</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03200985921558624</v>
+      </c>
+      <c r="H77">
+        <v>0.1567614079478078</v>
+      </c>
+      <c r="I77">
+        <v>-0.1540994375692287</v>
+      </c>
+      <c r="J77">
+        <v>-0.08344186053153245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09555032955102899</v>
+        <v>0.09118704907351149</v>
       </c>
       <c r="C78">
-        <v>0.02334102043365494</v>
+        <v>0.0493855352016495</v>
       </c>
       <c r="D78">
-        <v>0.02620035746193338</v>
+        <v>-0.004466480611767696</v>
       </c>
       <c r="E78">
-        <v>0.07793721068961096</v>
+        <v>0.08810275033783975</v>
       </c>
       <c r="F78">
-        <v>0.006904317119612651</v>
+        <v>0.03634718652849207</v>
       </c>
       <c r="G78">
-        <v>-0.02531851039889754</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.004818547312039242</v>
+      </c>
+      <c r="H78">
+        <v>0.01251734596100235</v>
+      </c>
+      <c r="I78">
+        <v>-0.02943470604671631</v>
+      </c>
+      <c r="J78">
+        <v>-0.02691236592998609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07521782488780296</v>
+        <v>0.09393990818515599</v>
       </c>
       <c r="C80">
-        <v>-0.01665577269608281</v>
+        <v>-0.08950257132149307</v>
       </c>
       <c r="D80">
-        <v>0.01005179531699907</v>
+        <v>-0.1785404529965637</v>
       </c>
       <c r="E80">
-        <v>-0.0125765464574164</v>
+        <v>-0.1770177599016506</v>
       </c>
       <c r="F80">
-        <v>-0.05805842661082094</v>
+        <v>0.930366581552994</v>
       </c>
       <c r="G80">
-        <v>0.2777459050607211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05460421082957581</v>
+      </c>
+      <c r="H80">
+        <v>-0.1603379673890839</v>
+      </c>
+      <c r="I80">
+        <v>0.0388990718536537</v>
+      </c>
+      <c r="J80">
+        <v>0.09082380829115999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1630310905973854</v>
+        <v>0.1727674161578107</v>
       </c>
       <c r="C81">
-        <v>-0.01358824254534865</v>
+        <v>0.006730072586620507</v>
       </c>
       <c r="D81">
-        <v>-0.06241336712476557</v>
+        <v>0.09048087685472812</v>
       </c>
       <c r="E81">
-        <v>-0.1110990645334938</v>
+        <v>-0.1374707311765058</v>
       </c>
       <c r="F81">
-        <v>-0.06830118487913342</v>
+        <v>-0.02590444501123675</v>
       </c>
       <c r="G81">
-        <v>0.004127308543592065</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01935343639619782</v>
+      </c>
+      <c r="H81">
+        <v>-0.008583916687537409</v>
+      </c>
+      <c r="I81">
+        <v>0.01555224984220321</v>
+      </c>
+      <c r="J81">
+        <v>-0.1202031428568037</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08060860920931444</v>
+        <v>0.0654839775109536</v>
       </c>
       <c r="C83">
-        <v>0.02262175115688681</v>
+        <v>0.03336436632066202</v>
       </c>
       <c r="D83">
-        <v>0.09528251758120947</v>
+        <v>-0.04452513910177545</v>
       </c>
       <c r="E83">
-        <v>0.04039882354220338</v>
+        <v>0.06191401470848522</v>
       </c>
       <c r="F83">
-        <v>0.06978874168980501</v>
+        <v>-0.009536989820117284</v>
       </c>
       <c r="G83">
-        <v>0.03369113245805382</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04829904307337787</v>
+      </c>
+      <c r="H83">
+        <v>0.04085597854861657</v>
+      </c>
+      <c r="I83">
+        <v>-0.005455006920504278</v>
+      </c>
+      <c r="J83">
+        <v>-0.09009724551932898</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2448262308320551</v>
+        <v>0.2550040710164087</v>
       </c>
       <c r="C85">
-        <v>0.03873709112506282</v>
+        <v>0.05306500500438115</v>
       </c>
       <c r="D85">
-        <v>-0.05873809298394708</v>
+        <v>0.08847185718798711</v>
       </c>
       <c r="E85">
-        <v>-0.1153214501658324</v>
+        <v>-0.1443665050204363</v>
       </c>
       <c r="F85">
-        <v>-0.03723243566854508</v>
+        <v>0.006614669046414843</v>
       </c>
       <c r="G85">
-        <v>0.02671381034572195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.01583014268006944</v>
+      </c>
+      <c r="H85">
+        <v>0.02670494770725472</v>
+      </c>
+      <c r="I85">
+        <v>0.0170046612274567</v>
+      </c>
+      <c r="J85">
+        <v>-0.1980387135340864</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04666601379973785</v>
+        <v>0.03131765231662539</v>
       </c>
       <c r="C86">
-        <v>0.0286676834273526</v>
+        <v>0.04121078895919144</v>
       </c>
       <c r="D86">
-        <v>-0.003577904699128356</v>
+        <v>0.003743998979648828</v>
       </c>
       <c r="E86">
-        <v>0.05018935915953009</v>
+        <v>0.05705654954471823</v>
       </c>
       <c r="F86">
-        <v>-0.004481103172091691</v>
+        <v>0.03445419304659111</v>
       </c>
       <c r="G86">
-        <v>0.02438301106289411</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.005665706392803829</v>
+      </c>
+      <c r="H86">
+        <v>0.03659689282376116</v>
+      </c>
+      <c r="I86">
+        <v>-0.0681350502941557</v>
+      </c>
+      <c r="J86">
+        <v>0.01923107932933518</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03141916340670371</v>
+        <v>0.03901347919076911</v>
       </c>
       <c r="C87">
-        <v>-0.05091426810134268</v>
+        <v>-0.02452764137189073</v>
       </c>
       <c r="D87">
-        <v>-0.007699402629211352</v>
+        <v>0.001233081703132318</v>
       </c>
       <c r="E87">
-        <v>0.05926386037465775</v>
+        <v>0.0879854169549973</v>
       </c>
       <c r="F87">
-        <v>0.02869861523294803</v>
+        <v>0.01849733823278286</v>
       </c>
       <c r="G87">
-        <v>-0.1387697612466721</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01483524128064373</v>
+      </c>
+      <c r="H87">
+        <v>-0.0178699966039626</v>
+      </c>
+      <c r="I87">
+        <v>-0.006408355252971575</v>
+      </c>
+      <c r="J87">
+        <v>0.09209193854354858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03767387600531827</v>
+        <v>0.0226172408591916</v>
       </c>
       <c r="C88">
-        <v>0.01865868816302697</v>
+        <v>0.01639225054297091</v>
       </c>
       <c r="D88">
-        <v>-0.007283011535972259</v>
+        <v>0.01099496406966865</v>
       </c>
       <c r="E88">
-        <v>0.003071188755049036</v>
+        <v>0.003162664004674387</v>
       </c>
       <c r="F88">
-        <v>0.0007343213118104464</v>
+        <v>0.02217884622516541</v>
       </c>
       <c r="G88">
-        <v>0.0674557281462454</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03113575196702175</v>
+      </c>
+      <c r="H88">
+        <v>0.04562729651220309</v>
+      </c>
+      <c r="I88">
+        <v>0.01182495317178024</v>
+      </c>
+      <c r="J88">
+        <v>0.02185700077297276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.03050430716822883</v>
+        <v>0.03973858131233012</v>
       </c>
       <c r="C89">
-        <v>-0.431599796447847</v>
+        <v>-0.3994949901730638</v>
       </c>
       <c r="D89">
-        <v>0.09581572157265289</v>
+        <v>-0.03242503801025766</v>
       </c>
       <c r="E89">
-        <v>-0.04064114659463671</v>
+        <v>0.03971314057023249</v>
       </c>
       <c r="F89">
-        <v>0.03018702327241155</v>
+        <v>-0.05786317371416187</v>
       </c>
       <c r="G89">
-        <v>0.03509308868476632</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.06968152688324522</v>
+      </c>
+      <c r="H89">
+        <v>0.009891492965857153</v>
+      </c>
+      <c r="I89">
+        <v>-0.2724992267150091</v>
+      </c>
+      <c r="J89">
+        <v>-0.09449702709421438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02992727734273408</v>
+        <v>0.02210228304800331</v>
       </c>
       <c r="C90">
-        <v>-0.3084548955715912</v>
+        <v>-0.333462984056169</v>
       </c>
       <c r="D90">
-        <v>0.02206591254753887</v>
+        <v>-0.01449154595813142</v>
       </c>
       <c r="E90">
-        <v>0.022356412334636</v>
+        <v>0.02782605237746481</v>
       </c>
       <c r="F90">
-        <v>0.001514407954476983</v>
+        <v>-0.002427442541223956</v>
       </c>
       <c r="G90">
-        <v>-0.0749360895674239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01681011744450298</v>
+      </c>
+      <c r="H90">
+        <v>-0.04637537528926832</v>
+      </c>
+      <c r="I90">
+        <v>-0.1932348004148002</v>
+      </c>
+      <c r="J90">
+        <v>-0.06466709868524663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3117982736228672</v>
+        <v>0.3187107066919592</v>
       </c>
       <c r="C91">
-        <v>0.005433259692537146</v>
+        <v>0.03752716286471616</v>
       </c>
       <c r="D91">
-        <v>-0.08547678835230885</v>
+        <v>0.1120052755009398</v>
       </c>
       <c r="E91">
-        <v>-0.2533351645339836</v>
+        <v>-0.2725802941462191</v>
       </c>
       <c r="F91">
-        <v>-0.1234558284713077</v>
+        <v>-0.04285322764353987</v>
       </c>
       <c r="G91">
-        <v>0.1198353272878772</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02658872458955609</v>
+      </c>
+      <c r="H91">
+        <v>-0.002511342327837484</v>
+      </c>
+      <c r="I91">
+        <v>0.03611303559034734</v>
+      </c>
+      <c r="J91">
+        <v>-0.3540661736489807</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.04332814832046959</v>
+        <v>0.06014901698730493</v>
       </c>
       <c r="C92">
-        <v>-0.4483306123929781</v>
+        <v>-0.4761788385452064</v>
       </c>
       <c r="D92">
-        <v>0.200068402686902</v>
+        <v>-0.05581575727200291</v>
       </c>
       <c r="E92">
-        <v>-0.1155971477507694</v>
+        <v>-0.1453231328906771</v>
       </c>
       <c r="F92">
-        <v>-0.07712435131862432</v>
+        <v>-0.02485180041902811</v>
       </c>
       <c r="G92">
-        <v>0.5267823699363173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.05283448843443037</v>
+      </c>
+      <c r="H92">
+        <v>0.5674931675329492</v>
+      </c>
+      <c r="I92">
+        <v>0.6069611884581324</v>
+      </c>
+      <c r="J92">
+        <v>0.1048024524077861</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04231489330579873</v>
+        <v>0.02342495590187102</v>
       </c>
       <c r="C93">
-        <v>-0.3605182724990799</v>
+        <v>-0.4066571641571681</v>
       </c>
       <c r="D93">
-        <v>0.06828371817264069</v>
+        <v>-0.03982696314136585</v>
       </c>
       <c r="E93">
-        <v>-0.06071090479400778</v>
+        <v>-0.02926518458747317</v>
       </c>
       <c r="F93">
-        <v>-0.02130125110176506</v>
+        <v>-0.02971675116406061</v>
       </c>
       <c r="G93">
-        <v>0.004864419209446921</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03877146691384742</v>
+      </c>
+      <c r="H93">
+        <v>-0.05831273228405715</v>
+      </c>
+      <c r="I93">
+        <v>-0.2032364599506821</v>
+      </c>
+      <c r="J93">
+        <v>-0.09813417648621657</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3090272362550689</v>
+        <v>0.3268962663531486</v>
       </c>
       <c r="C94">
-        <v>-0.02059411102910344</v>
+        <v>0.01447695487025397</v>
       </c>
       <c r="D94">
-        <v>-0.0777002240381942</v>
+        <v>0.1696351546329114</v>
       </c>
       <c r="E94">
-        <v>-0.4567388520489062</v>
+        <v>-0.3902698451636123</v>
       </c>
       <c r="F94">
-        <v>-0.400821684558508</v>
+        <v>-0.09228352607267368</v>
       </c>
       <c r="G94">
-        <v>-0.09121813089225193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1914988231119458</v>
+      </c>
+      <c r="H94">
+        <v>0.04569782754002651</v>
+      </c>
+      <c r="I94">
+        <v>-0.3254037296597772</v>
+      </c>
+      <c r="J94">
+        <v>0.5850251904735341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1875539238577417</v>
+        <v>0.1418441429912592</v>
       </c>
       <c r="C95">
-        <v>-0.0403215535794342</v>
+        <v>0.05656697913532204</v>
       </c>
       <c r="D95">
-        <v>-0.01428357220427564</v>
+        <v>0.03935158219584708</v>
       </c>
       <c r="E95">
-        <v>-0.3749579608351402</v>
+        <v>-0.009668185575959299</v>
       </c>
       <c r="F95">
-        <v>0.8589949428133874</v>
+        <v>-0.09489625214471401</v>
       </c>
       <c r="G95">
-        <v>0.02777815481484795</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9220122992026285</v>
+      </c>
+      <c r="H95">
+        <v>-0.08015409689379611</v>
+      </c>
+      <c r="I95">
+        <v>-0.01008904339964247</v>
+      </c>
+      <c r="J95">
+        <v>0.2435758152371435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2076932133032634</v>
+        <v>0.2070880277270137</v>
       </c>
       <c r="C98">
-        <v>-0.1496787953379495</v>
+        <v>-0.09208484858428144</v>
       </c>
       <c r="D98">
-        <v>0.02236004514128696</v>
+        <v>-0.006420156867370936</v>
       </c>
       <c r="E98">
-        <v>0.09617863399347781</v>
+        <v>0.1593125811724892</v>
       </c>
       <c r="F98">
-        <v>0.01244264329789467</v>
+        <v>-0.07817362840909213</v>
       </c>
       <c r="G98">
-        <v>-0.259615713747066</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07052323466300139</v>
+      </c>
+      <c r="H98">
+        <v>-0.2940475109906305</v>
+      </c>
+      <c r="I98">
+        <v>0.2137645873025432</v>
+      </c>
+      <c r="J98">
+        <v>0.06915905491773958</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.0209131723853024</v>
+        <v>0.01355348018260492</v>
       </c>
       <c r="C101">
-        <v>0.01565964427257014</v>
+        <v>0.02793728700959613</v>
       </c>
       <c r="D101">
-        <v>-0.01621595363438566</v>
+        <v>0.02060494660088625</v>
       </c>
       <c r="E101">
-        <v>0.0417193552816058</v>
+        <v>0.06338049615942669</v>
       </c>
       <c r="F101">
-        <v>0.01660598201613902</v>
+        <v>0.03903936833803268</v>
       </c>
       <c r="G101">
-        <v>0.04638545380826468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.001571529078040277</v>
+      </c>
+      <c r="H101">
+        <v>0.1229786242571568</v>
+      </c>
+      <c r="I101">
+        <v>-0.01512243775594179</v>
+      </c>
+      <c r="J101">
+        <v>0.05367992248079233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1198994168044355</v>
+        <v>0.1199760543478604</v>
       </c>
       <c r="C102">
-        <v>-0.002489289001726522</v>
+        <v>0.02525336844470788</v>
       </c>
       <c r="D102">
-        <v>-0.04901509666176044</v>
+        <v>0.05448362891870862</v>
       </c>
       <c r="E102">
-        <v>-0.07202407146907913</v>
+        <v>-0.08316377648394309</v>
       </c>
       <c r="F102">
-        <v>0.01739640429393024</v>
+        <v>0.003690621502774178</v>
       </c>
       <c r="G102">
-        <v>0.01478054337512233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03851106390700561</v>
+      </c>
+      <c r="H102">
+        <v>-0.004742972675598645</v>
+      </c>
+      <c r="I102">
+        <v>-0.02081202664426288</v>
+      </c>
+      <c r="J102">
+        <v>-0.06320770496652314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01655836191684186</v>
+        <v>0.01979926106577562</v>
       </c>
       <c r="C103">
-        <v>0.0001901609741352218</v>
+        <v>0.00871190311960773</v>
       </c>
       <c r="D103">
-        <v>-0.01779421493342375</v>
+        <v>0.01663172324312882</v>
       </c>
       <c r="E103">
-        <v>-0.0281367553542855</v>
+        <v>-0.01605546618240297</v>
       </c>
       <c r="F103">
-        <v>-0.01078862702103325</v>
+        <v>-0.002930512129423307</v>
       </c>
       <c r="G103">
-        <v>-0.009692537130314679</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01230049492270743</v>
+      </c>
+      <c r="H103">
+        <v>0.003580237410293482</v>
+      </c>
+      <c r="I103">
+        <v>-0.02310329473740159</v>
+      </c>
+      <c r="J103">
+        <v>-0.001108765709302793</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
